--- a/Documentación/Formularios.xlsx
+++ b/Documentación/Formularios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\DesarrolloSoftwawe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\DesarrolloSoftwawe\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC7EA7-BBF1-418C-990A-E56577FC02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888D598-4D87-4D45-B171-9DD814EAC12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Forularios</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Quien lo va hacer</t>
+  </si>
+  <si>
+    <t>Asdrubal</t>
+  </si>
+  <si>
+    <t>Elmer</t>
+  </si>
+  <si>
+    <t>Gerson</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
   <dimension ref="C2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,31 +496,41 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">

--- a/Documentación/Formularios.xlsx
+++ b/Documentación/Formularios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\DesarrolloSoftwawe\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888D598-4D87-4D45-B171-9DD814EAC12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D44140-D488-4CFC-951C-B7DEFDADF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Forularios</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="C2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -529,56 +529,72 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>

--- a/Documentación/Formularios.xlsx
+++ b/Documentación/Formularios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASES\DesarrolloSoftwawe\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20c4c05474ff9b44/Documentos/DesarrolloSoftwawe/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D44140-D488-4CFC-951C-B7DEFDADF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{45D44140-D488-4CFC-951C-B7DEFDADF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B07EA3E-DA2E-4DE6-9848-391EAF4BC03A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -103,13 +103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,11 +186,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +474,7 @@
   <dimension ref="C2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,128 +485,128 @@
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
